--- a/githublink.xlsx
+++ b/githublink.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Rakesh_Python_Tops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CD8BC4-72B6-4772-B2D6-B4C623396689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853461A7-76D2-4FAC-8839-174F39ACEDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F14DE2D2-345D-4355-BC85-A64DEE64E6E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Github Link</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>https://github.com/MOH1504/mohit_python_tops.git</t>
+  </si>
+  <si>
+    <t>https://github.com/patel3464/python.git</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="E4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +438,9 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
